--- a/results/Temp Results/gamm_temp_model_fit.xlsx
+++ b/results/Temp Results/gamm_temp_model_fit.xlsx
@@ -389,22 +389,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58.0390505498059</v>
+        <v>57.8759039791103</v>
       </c>
       <c r="B2" t="n">
-        <v>-27831.0369189471</v>
+        <v>-27907.9253661154</v>
       </c>
       <c r="C2" t="n">
-        <v>55780.792394018</v>
+        <v>55934.2673103241</v>
       </c>
       <c r="D2" t="n">
-        <v>56239.3900233511</v>
+        <v>56391.6984294377</v>
       </c>
       <c r="E2" t="n">
-        <v>1225.03316468391</v>
+        <v>1244.83295386678</v>
       </c>
       <c r="F2" t="n">
-        <v>16685.9609494502</v>
+        <v>16686.1240960209</v>
       </c>
       <c r="G2" t="n">
         <v>16744</v>
